--- a/coordinates_sample/720乐浪郡/720乐浪郡.xlsx
+++ b/coordinates_sample/720乐浪郡/720乐浪郡.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/720乐浪郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FCE5B2-82E0-8749-828C-AC9F4291F377}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="720乐浪郡" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="720" sheetId="4" r:id="rId3"/>
     <sheet name="720(NULL)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -166,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -521,19 +522,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -558,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>71901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -572,10 +573,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>71902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -586,10 +587,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>71903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -600,10 +601,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>71904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -614,10 +615,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>71905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -628,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>71906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -642,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>71907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -656,10 +657,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>71908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -670,10 +671,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>71909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -684,10 +685,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>71910</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -698,10 +699,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>71911</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -712,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>71912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -726,10 +727,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>71913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -740,10 +741,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>71914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -754,10 +755,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>71915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -768,10 +769,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>71916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -782,10 +783,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>71917</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -796,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>71918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -810,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>71919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -824,10 +825,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>71920</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -838,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>71921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -852,10 +853,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>71922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -866,10 +867,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>71923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -880,10 +881,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>71924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+        <v>72024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -894,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>71925</v>
+        <v>72025</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -959,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>71901</v>
+        <v>72001</v>
       </c>
       <c r="E2">
         <v>39.0290544</v>
@@ -985,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>71902</v>
+        <v>72002</v>
       </c>
       <c r="E3">
         <v>39.225797999999998</v>
@@ -1011,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>71903</v>
+        <v>72003</v>
       </c>
       <c r="E4">
         <v>40.1695031</v>
@@ -1037,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>71904</v>
+        <v>72004</v>
       </c>
       <c r="E5">
         <v>38.425083100000002</v>
@@ -1063,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>71905</v>
+        <v>72005</v>
       </c>
       <c r="E6">
         <v>38.760272399999998</v>
@@ -1089,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>71906</v>
+        <v>72006</v>
       </c>
       <c r="E7">
         <v>38.911738</v>
@@ -1115,7 +1116,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>71907</v>
+        <v>72007</v>
       </c>
       <c r="E8">
         <v>39.597749999999998</v>
@@ -1141,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>71908</v>
+        <v>72008</v>
       </c>
       <c r="E9">
         <v>38.467763400000003</v>
@@ -1167,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>71909</v>
+        <v>72009</v>
       </c>
       <c r="E10">
         <v>39.143200999999998</v>
@@ -1193,10 +1194,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>71910</v>
+        <v>72010</v>
       </c>
       <c r="E11">
-        <v>38.037199000000001</v>
+        <v>38.037208999999997</v>
       </c>
       <c r="F11">
         <v>125.7486103</v>
@@ -1219,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>71911</v>
+        <v>72011</v>
       </c>
       <c r="E12">
         <v>38.507189099999998</v>
@@ -1245,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>71912</v>
+        <v>72012</v>
       </c>
       <c r="E13">
         <v>38.263387000000002</v>
@@ -1271,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>71913</v>
+        <v>72013</v>
       </c>
       <c r="E14">
         <v>38.670312799999998</v>
@@ -1297,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>71914</v>
+        <v>72014</v>
       </c>
       <c r="E15">
         <v>38.364807999999996</v>
@@ -1323,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>71915</v>
+        <v>72015</v>
       </c>
       <c r="E16">
         <v>39.218919999999997</v>
@@ -1349,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>71916</v>
+        <v>72016</v>
       </c>
       <c r="E17">
         <v>38.322073000000003</v>
@@ -1375,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>71917</v>
+        <v>72017</v>
       </c>
       <c r="E18">
         <v>39.428317999999997</v>
@@ -1401,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>71919</v>
+        <v>72019</v>
       </c>
       <c r="E19">
         <v>37.763694800000003</v>
@@ -1427,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>71920</v>
+        <v>72020</v>
       </c>
       <c r="E20">
         <v>39.044868899999997</v>
@@ -1453,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>71921</v>
+        <v>72021</v>
       </c>
       <c r="E21">
         <v>38.158757000000001</v>
@@ -1479,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>71923</v>
+        <v>72023</v>
       </c>
       <c r="E22">
         <v>38.537333199999999</v>
@@ -1505,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>71924</v>
+        <v>72024</v>
       </c>
       <c r="E23">
         <v>38.250492199999997</v>
@@ -1531,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>71925</v>
+        <v>72025</v>
       </c>
       <c r="E24">
         <v>40.007311600000001</v>
@@ -1553,11 +1554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:S30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1602,7 +1603,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="1">
-        <v>71901</v>
+        <v>72001</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1625,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="1">
-        <v>71902</v>
+        <v>72002</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1648,7 +1649,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="1">
-        <v>71903</v>
+        <v>72003</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1671,7 +1672,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="1">
-        <v>71904</v>
+        <v>72004</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1694,7 +1695,7 @@
         <v>41</v>
       </c>
       <c r="F6" s="1">
-        <v>71905</v>
+        <v>72005</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1717,7 +1718,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="1">
-        <v>71906</v>
+        <v>72006</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1740,7 +1741,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="1">
-        <v>71907</v>
+        <v>72007</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -1763,7 +1764,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="1">
-        <v>71908</v>
+        <v>72008</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1786,7 +1787,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="1">
-        <v>71909</v>
+        <v>72009</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1803,13 +1804,13 @@
         <v>125.7486103</v>
       </c>
       <c r="D11">
-        <v>38.037199000000001</v>
+        <v>38.037208999999997</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="1">
-        <v>71910</v>
+        <v>72010</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1832,7 +1833,7 @@
         <v>41</v>
       </c>
       <c r="F12" s="1">
-        <v>71911</v>
+        <v>72011</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1855,7 +1856,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="1">
-        <v>71912</v>
+        <v>72012</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1878,7 +1879,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="1">
-        <v>71913</v>
+        <v>72013</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1901,7 +1902,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="1">
-        <v>71914</v>
+        <v>72014</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1924,7 +1925,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="1">
-        <v>71915</v>
+        <v>72015</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1947,7 +1948,7 @@
         <v>41</v>
       </c>
       <c r="F17" s="1">
-        <v>71916</v>
+        <v>72016</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1970,7 +1971,7 @@
         <v>41</v>
       </c>
       <c r="F18" s="1">
-        <v>71917</v>
+        <v>72017</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1993,7 +1994,7 @@
         <v>41</v>
       </c>
       <c r="F19" s="1">
-        <v>71919</v>
+        <v>72019</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -2016,7 +2017,7 @@
         <v>41</v>
       </c>
       <c r="F20" s="1">
-        <v>71920</v>
+        <v>72020</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -2039,7 +2040,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="1">
-        <v>71921</v>
+        <v>72021</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -2062,7 +2063,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="1">
-        <v>71923</v>
+        <v>72023</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -2085,7 +2086,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="1">
-        <v>71924</v>
+        <v>72024</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -2108,7 +2109,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="1">
-        <v>71925</v>
+        <v>72025</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -2121,11 +2122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2141,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1">
-        <v>71918</v>
+        <v>72018</v>
       </c>
       <c r="J1" t="s">
         <v>41</v>
@@ -2158,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>71922</v>
+        <v>72022</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
